--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wouter\Dropbox\Personal\Programming\UnixCode\courses\2025-03-28-Bootcamp-Home-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563760F-301B-4553-B9B1-A587A68F3F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCECB36-E08B-4CDB-B410-5F1A5A9E901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="465" windowWidth="26835" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Product</t>
   </si>
@@ -118,13 +118,19 @@
   </si>
   <si>
     <t>ESP8266 5V Wifi Relais</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.be/-/en/Channel-Trigger-Optocoupler-Isolation-Development/dp/B0D1MYBX7N/ref=asc_df_B0D1MYBX7N/?tag=begogshpadsp-21&amp;linkCode=df0&amp;hvadid=712631038299&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9994857704766640860&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=m&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9191226&amp;hvtargid=pla-2332712355030&amp;psc=1&amp;mcid=3cfc8f883a4a3b6b9685712d3723be50&amp;gad_source=1</t>
+  </si>
+  <si>
+    <t>8 Pack 3V 1 Channel Power Relay 1 Channel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +140,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +528,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
         <v>56.680000000000007</v>
       </c>
       <c r="F3" t="s">
@@ -653,24 +668,23 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <f>K20</f>
-        <v>15</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.68</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -719,24 +733,23 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C15" si="1">$K$21</f>
-        <v>15</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.68</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -748,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C13:C15" si="1">$K$21</f>
         <v>15</v>
       </c>
       <c r="D14">
@@ -784,13 +797,35 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f>CEILING((K20+K21)/8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>12.99</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>51.96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="1">
         <f>SUM(E2:E21)</f>
-        <v>601.89</v>
+        <v>633.45000000000005</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wouter\Dropbox\Personal\Programming\UnixCode\courses\2025-03-28-Bootcamp-Home-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\Projects\IoT bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCECB36-E08B-4CDB-B410-5F1A5A9E901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127E6F5B-2BD0-4607-96E0-847E7D761264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Product</t>
   </si>
@@ -124,13 +135,19 @@
   </si>
   <si>
     <t>8 Pack 3V 1 Channel Power Relay 1 Channel</t>
+  </si>
+  <si>
+    <t>Geleverd</t>
+  </si>
+  <si>
+    <t>Foutief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,16 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,401 +487,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>62.69</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
+      <c r="F2">
+        <f>D2*E2</f>
         <v>188.07</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <f>K19</f>
+      <c r="D3">
+        <f>L19</f>
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="0">D3*E3</f>
         <v>56.680000000000007</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <f>K19</f>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <f>L19</f>
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.78</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>20.28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <f>K19</f>
+      <c r="D5">
+        <f>L19</f>
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.44</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>11.44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <f>CEILING(K19/3,1)</f>
+      <c r="D6">
+        <f>CEILING(L19/3,1)</f>
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.66</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>14.94</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <f>K19</f>
+      <c r="D7">
+        <f>L19</f>
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2.08</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>54.08</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <f>K19</f>
+      <c r="D8">
+        <f>L19</f>
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.35</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>61.1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <f>K20</f>
+      <c r="D9">
+        <f>L20</f>
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.68</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <f>K20</f>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <f>L20</f>
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.29</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>34.35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <f>$K$21</f>
+      <c r="D12">
+        <f>$L$21</f>
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.68</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C13:C15" si="1">$K$21</f>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="1">$L$21</f>
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.72</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>40.800000000000004</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.29</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>34.35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
-        <f>CEILING((K20+K21)/8,1)</f>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <f>CEILING((L20+L21)/8,1)</f>
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>12.99</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>51.96</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="1" t="s">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1">
-        <f>SUM(E2:E21)</f>
+      <c r="K17" s="1">
+        <f>SUM(F2:F21)</f>
         <v>633.45000000000005</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
         <v>17</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G16" r:id="rId1" display="https://www.amazon.com.be/-/en/Channel-Trigger-Optocoupler-Isolation-Development/dp/B0D1MYBX7N/ref=asc_df_B0D1MYBX7N/?tag=begogshpadsp-21&amp;linkCode=df0&amp;hvadid=712631038299&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9994857704766640860&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=m&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9191226&amp;hvtargid=pla-2332712355030&amp;psc=1&amp;mcid=3cfc8f883a4a3b6b9685712d3723be50&amp;gad_source=1" xr:uid="{D16946CF-2EC8-4EAA-BA2D-64D2293E5495}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\Projects\IoT bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127E6F5B-2BD0-4607-96E0-847E7D761264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5445B42-918C-402D-83DA-4F8C611C80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Product</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +684,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
       <c r="D9">
         <f>L20</f>
         <v>15</v>
@@ -752,6 +755,9 @@
       </c>
       <c r="B12" t="s">
         <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
       <c r="D12">
         <f>$L$21</f>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\Projects\IoT bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5445B42-918C-402D-83DA-4F8C611C80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BD81DD-C6E1-4817-95DF-17336AE2E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Product</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +618,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6">
         <f>CEILING(L19/3,1)</f>
         <v>9</v>
@@ -640,6 +643,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
       <c r="D7">
         <f>L19</f>
         <v>26</v>
@@ -661,6 +667,9 @@
       </c>
       <c r="B8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8">
         <f>L19</f>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bert\Documents\Projects\IoT bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wouter\Dropbox\Personal\Programming\UnixCode\courses\2025-03-28-Bootcamp-Home-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BD81DD-C6E1-4817-95DF-17336AE2E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271FEE9B-BE03-4BFE-8190-58E0486E6844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Product</t>
   </si>
@@ -141,6 +130,12 @@
   </si>
   <si>
     <t>Foutief</t>
+  </si>
+  <si>
+    <t>Alternatief</t>
+  </si>
+  <si>
+    <t>Canceled</t>
   </si>
 </sst>
 </file>
@@ -209,7 +204,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +544,9 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
       <c r="D3">
         <f>L19</f>
         <v>26</v>
@@ -596,6 +594,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D5">
         <f>L19</f>
         <v>26</v>
@@ -632,7 +633,7 @@
         <f t="shared" si="0"/>
         <v>14.94</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -718,7 +719,9 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -790,7 +793,9 @@
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
@@ -826,7 +831,7 @@
         <f t="shared" si="0"/>
         <v>40.800000000000004</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -916,8 +921,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G16" r:id="rId1" display="https://www.amazon.com.be/-/en/Channel-Trigger-Optocoupler-Isolation-Development/dp/B0D1MYBX7N/ref=asc_df_B0D1MYBX7N/?tag=begogshpadsp-21&amp;linkCode=df0&amp;hvadid=712631038299&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9994857704766640860&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=m&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9191226&amp;hvtargid=pla-2332712355030&amp;psc=1&amp;mcid=3cfc8f883a4a3b6b9685712d3723be50&amp;gad_source=1" xr:uid="{D16946CF-2EC8-4EAA-BA2D-64D2293E5495}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{8F1CD899-1653-4A32-BBAD-8B5267EDEBB6}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{0813E0ED-AE8D-4593-B650-F04B68FBFFEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>